--- a/contents/battle_4/battle_4.xlsx
+++ b/contents/battle_4/battle_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\InteractiveBook\contents\battle_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583CBEAF-4194-4D9C-9B24-204F44EA868A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC99CDE-FE9B-432F-B689-C1945958F471}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +625,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D2" s="10">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D3" s="10">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D4" s="10">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D5" s="10">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D6" s="10">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D7" s="10">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D8" s="10">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="10">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D9" s="10">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="10">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="10">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D11" s="10">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="10">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D12" s="10">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="10">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D13" s="10">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="10">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D14" s="10">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="10">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D15" s="10">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D16" s="10">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D17" s="10">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D18" s="10">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D19" s="10">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D20" s="10">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D21" s="10">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D22" s="10">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D23" s="10">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D24" s="10">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D25" s="10">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D26" s="10">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D27" s="10">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D28" s="10">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D29" s="10">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D30" s="10">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D31" s="10">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D32" s="10">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D33" s="10">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>8</v>
       </c>
       <c r="C34" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D34" s="10">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D35" s="10">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D36" s="10">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>8</v>
       </c>
       <c r="C37" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D37" s="10">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D38" s="10">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>13</v>
       </c>
       <c r="C39" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D39" s="10">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D40" s="10">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>11</v>
       </c>
       <c r="C41" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D41" s="10">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>15</v>
       </c>
       <c r="C43" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D43" s="10">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D44" s="10">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>15</v>
       </c>
       <c r="C45" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D45" s="10">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D46" s="10">
         <v>0</v>
@@ -1402,7 +1402,7 @@
         <v>15</v>
       </c>
       <c r="C47" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D47" s="10">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>12</v>
       </c>
       <c r="C51" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D51" s="10">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>13</v>
       </c>
       <c r="C52" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D52" s="10">
         <v>0</v>
@@ -1504,7 +1504,7 @@
         <v>14</v>
       </c>
       <c r="C53" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D53" s="10">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>15</v>
       </c>
       <c r="C54" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D54" s="10">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>12</v>
       </c>
       <c r="C55" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D55" s="10">
         <v>0</v>
@@ -1555,7 +1555,7 @@
         <v>13</v>
       </c>
       <c r="C56" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D56" s="10">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>14</v>
       </c>
       <c r="C57" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D57" s="10">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>15</v>
       </c>
       <c r="C58" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D58" s="10">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>13</v>
       </c>
       <c r="C59" s="10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D59" s="10">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>14</v>
       </c>
       <c r="C60" s="10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D60" s="10">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>15</v>
       </c>
       <c r="C61" s="10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D61" s="10">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D62" s="10">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D63" s="10">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D64" s="10">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D65" s="10">
         <v>0</v>
@@ -1725,7 +1725,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D66" s="10">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>6</v>
       </c>
       <c r="C67" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D67" s="10">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>7</v>
       </c>
       <c r="C68" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D68" s="10">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="10">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D69" s="10">
         <v>0</v>
@@ -1793,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="C70" s="10">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D70" s="10">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="C71" s="10">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D71" s="10">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>4</v>
       </c>
       <c r="C72" s="10">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D72" s="10">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>5</v>
       </c>
       <c r="C73" s="10">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D73" s="10">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>6</v>
       </c>
       <c r="C74" s="10">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D74" s="10">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>7</v>
       </c>
       <c r="C75" s="10">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D75" s="10">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="10">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D76" s="10">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="C77" s="10">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D77" s="10">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="10">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D78" s="10">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>5</v>
       </c>
       <c r="C79" s="10">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D79" s="10">
         <v>0</v>
@@ -1963,7 +1963,7 @@
         <v>6</v>
       </c>
       <c r="C80" s="10">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D80" s="10">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>7</v>
       </c>
       <c r="C81" s="10">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D81" s="10">
         <v>0</v>
@@ -1997,7 +1997,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D82" s="10">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>3</v>
       </c>
       <c r="C83" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D83" s="10">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>2</v>
       </c>
       <c r="C84" s="10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D84" s="10">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>3</v>
       </c>
       <c r="C85" s="10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D85" s="10">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="C86" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D86" s="10">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>3</v>
       </c>
       <c r="C87" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D87" s="10">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="C88" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D88" s="10">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="C89" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D89" s="10">
         <v>0</v>
@@ -2167,7 +2167,7 @@
         <v>2</v>
       </c>
       <c r="C92" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D92" s="10">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>3</v>
       </c>
       <c r="C93" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D93" s="10">
         <v>0</v>
@@ -2201,7 +2201,7 @@
         <v>2</v>
       </c>
       <c r="C94" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D94" s="10">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>3</v>
       </c>
       <c r="C95" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D95" s="10">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="C96" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D96" s="10">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>3</v>
       </c>
       <c r="C97" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D97" s="10">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>6</v>
       </c>
       <c r="C98" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D98" s="10">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>6</v>
       </c>
       <c r="C99" s="10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D99" s="10">
         <v>0</v>
@@ -2303,7 +2303,7 @@
         <v>6</v>
       </c>
       <c r="C100" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D100" s="10">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>7</v>
       </c>
       <c r="C101" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D101" s="10">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>4</v>
       </c>
       <c r="C103" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D103" s="10">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>4</v>
       </c>
       <c r="C106" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D106" s="10">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>5</v>
       </c>
       <c r="C107" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D107" s="10">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>5</v>
       </c>
       <c r="C108" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D108" s="10">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>4</v>
       </c>
       <c r="C109" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D109" s="10">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>5</v>
       </c>
       <c r="C110" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D110" s="10">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>2</v>
       </c>
       <c r="C111" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D111" s="10">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         <v>2</v>
       </c>
       <c r="C112" s="10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D112" s="10">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>3</v>
       </c>
       <c r="C113" s="10">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D113" s="10">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="C114" s="10">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D114" s="10">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>5</v>
       </c>
       <c r="C115" s="10">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D115" s="10">
         <v>0</v>
@@ -2859,7 +2859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE17DB7-E6BE-4178-A86C-3E370AE7D84E}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>

--- a/contents/battle_4/battle_4.xlsx
+++ b/contents/battle_4/battle_4.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\InteractiveBook\contents\battle_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC99CDE-FE9B-432F-B689-C1945958F471}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CCFE05-DA0D-42E3-BFEE-A4A96E57BD78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
     <sheet name="interactions" sheetId="11" r:id="rId2"/>
     <sheet name="units" sheetId="2" r:id="rId3"/>
+    <sheet name="parameters" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="64">
   <si>
     <t>x</t>
   </si>
@@ -189,6 +190,36 @@
   </si>
   <si>
     <t>bridge_1,bridge_2</t>
+  </si>
+  <si>
+    <t>flier_distance_height_gain</t>
+  </si>
+  <si>
+    <t>flier_distance</t>
+  </si>
+  <si>
+    <t>siege_distance_height_gain</t>
+  </si>
+  <si>
+    <t>siege_distance</t>
+  </si>
+  <si>
+    <t>archer_distance_height_gain</t>
+  </si>
+  <si>
+    <t>archer_distance</t>
+  </si>
+  <si>
+    <t>melee_height_difference_threshold</t>
+  </si>
+  <si>
+    <t>melee_distance</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>parameter</t>
   </si>
 </sst>
 </file>
@@ -579,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -4751,4 +4782,95 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFBD135-D654-4DBC-B6EE-BD53763E2425}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/contents/battle_4/battle_4.xlsx
+++ b/contents/battle_4/battle_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\InteractiveBook\contents\battle_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CCFE05-DA0D-42E3-BFEE-A4A96E57BD78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDC8C1D-F237-4A8F-9927-A54B7206158A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="63">
   <si>
     <t>x</t>
   </si>
@@ -180,18 +180,12 @@
     <t>chamber,passage</t>
   </si>
   <si>
-    <t>plateu,cave</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
     <t>passage,chamber</t>
   </si>
   <si>
-    <t>bridge_1,bridge_2</t>
-  </si>
-  <si>
     <t>flier_distance_height_gain</t>
   </si>
   <si>
@@ -220,6 +214,9 @@
   </si>
   <si>
     <t>parameter</t>
+  </si>
+  <si>
+    <t>plateu,cave,bridge_1,bridge_2</t>
   </si>
 </sst>
 </file>
@@ -2618,10 +2615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76CDC32-9C71-4924-88B2-6E23C700FAA0}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2651,10 +2648,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="11">
         <v>-1</v>
@@ -2671,7 +2668,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>48</v>
@@ -2688,7 +2685,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="11">
         <v>0</v>
@@ -2747,90 +2744,69 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="11">
         <v>-1</v>
       </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="11">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="A11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2838,10 +2814,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2849,10 +2825,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2860,23 +2836,12 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16">
         <v>0</v>
       </c>
     </row>
@@ -4788,7 +4753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFBD135-D654-4DBC-B6EE-BD53763E2425}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -4800,15 +4765,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>3.5</v>
@@ -4816,7 +4781,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4824,7 +4789,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>4.5</v>
@@ -4832,7 +4797,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -4840,7 +4805,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -4848,7 +4813,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -4856,7 +4821,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -4864,7 +4829,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>0.5</v>

--- a/contents/battle_4/battle_4.xlsx
+++ b/contents/battle_4/battle_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\InteractiveBook\contents\battle_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDC8C1D-F237-4A8F-9927-A54B7206158A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161A6D66-3074-4400-982D-EF3BB4A11D78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="67">
   <si>
     <t>x</t>
   </si>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>plateu,cave,bridge_1,bridge_2</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>cavalry_distance</t>
+  </si>
+  <si>
+    <t>cavalry_height_difference_threshold</t>
+  </si>
+  <si>
+    <t>cavalry</t>
   </si>
 </sst>
 </file>
@@ -2615,10 +2627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76CDC32-9C71-4924-88B2-6E23C700FAA0}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,7 +2638,7 @@
     <col min="1" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -2643,10 +2655,13 @@
         <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>50</v>
       </c>
@@ -2665,8 +2680,11 @@
       <c r="F2" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>51</v>
       </c>
@@ -2676,11 +2694,20 @@
       <c r="C3" s="11">
         <v>0</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>48</v>
       </c>
@@ -2690,11 +2717,20 @@
       <c r="C4" s="11">
         <v>0</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>48</v>
       </c>
@@ -2704,11 +2740,20 @@
       <c r="C5" s="11">
         <v>0</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>37</v>
       </c>
@@ -2718,11 +2763,20 @@
       <c r="C6" s="11">
         <v>0</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -2741,8 +2795,11 @@
       <c r="F7" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -2758,11 +2815,14 @@
       <c r="E8" s="11">
         <v>0</v>
       </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -2774,9 +2834,12 @@
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
@@ -2788,9 +2851,12 @@
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
@@ -2800,8 +2866,20 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>47</v>
       </c>
@@ -2811,8 +2889,20 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>46</v>
       </c>
@@ -2822,8 +2912,20 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>45</v>
       </c>
@@ -2833,8 +2935,20 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>44</v>
       </c>
@@ -2843,6 +2957,18 @@
       </c>
       <c r="C15">
         <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -2856,7 +2982,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3614,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="E22" s="5">
         <v>3</v>
@@ -3649,7 +3775,7 @@
         <v>34</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="E23" s="5">
         <v>3</v>
@@ -4751,10 +4877,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFBD135-D654-4DBC-B6EE-BD53763E2425}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4821,17 +4947,33 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>0.5</v>
       </c>
     </row>
